--- a/excel/GUI Automated Testing-ProfileInformation.xlsx
+++ b/excel/GUI Automated Testing-ProfileInformation.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GUI_PI_AP_001" sheetId="1" r:id="rId1"/>
     <sheet name="GUI_PI_AP_002" sheetId="2" r:id="rId2"/>
     <sheet name="GUI_PI_AP_003" sheetId="3" r:id="rId3"/>
+    <sheet name="Parameters" sheetId="4" r:id="rId4"/>
+    <sheet name="Objects" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="73">
   <si>
     <t>Step</t>
   </si>
@@ -55,9 +57,6 @@
     <t>screenshot</t>
   </si>
   <si>
-    <t>NumericValue</t>
-  </si>
-  <si>
     <t>navigate</t>
   </si>
   <si>
@@ -239,6 +238,15 @@
   </si>
   <si>
     <t>mat-input-24</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>ValueLocator</t>
   </si>
 </sst>
 </file>
@@ -618,22 +626,20 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -647,17 +653,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -669,17 +675,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -691,19 +697,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -717,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -743,17 +749,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -765,19 +771,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="4"/>
@@ -791,17 +797,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -813,17 +819,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -835,19 +841,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -861,19 +867,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -885,19 +891,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -911,19 +917,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -935,10 +941,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -997,22 +1003,20 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1026,17 +1030,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1050,17 +1054,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1074,19 +1078,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1100,19 +1104,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1126,17 +1130,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1150,17 +1154,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
@@ -1172,19 +1176,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="4"/>
@@ -1198,17 +1202,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1222,19 +1226,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1248,19 +1252,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1274,19 +1278,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1300,10 +1304,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -1331,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,22 +1369,20 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1394,17 +1396,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
@@ -1418,17 +1420,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1442,19 +1444,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -1468,19 +1470,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1494,17 +1496,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1518,19 +1520,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="4"/>
@@ -1544,17 +1546,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
@@ -1568,17 +1570,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1590,19 +1592,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -1616,19 +1618,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1642,19 +1644,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1666,10 +1668,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -1688,4 +1690,56 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>